--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H2">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I2">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J2">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N2">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O2">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P2">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q2">
-        <v>4.879420661690667</v>
+        <v>0.3996096561443333</v>
       </c>
       <c r="R2">
-        <v>43.914785955216</v>
+        <v>3.596486905298999</v>
       </c>
       <c r="S2">
-        <v>0.004842815401780955</v>
+        <v>0.0004440432584234799</v>
       </c>
       <c r="T2">
-        <v>0.004842815401780953</v>
+        <v>0.0004440432584234798</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H3">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I3">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J3">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>57.824759</v>
       </c>
       <c r="O3">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P3">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q3">
-        <v>40.45589758933067</v>
+        <v>11.52589438778211</v>
       </c>
       <c r="R3">
-        <v>364.103078303976</v>
+        <v>103.733049490039</v>
       </c>
       <c r="S3">
-        <v>0.04015239872157266</v>
+        <v>0.01280748756067876</v>
       </c>
       <c r="T3">
-        <v>0.04015239872157265</v>
+        <v>0.01280748756067876</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H4">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I4">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J4">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N4">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O4">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P4">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q4">
-        <v>63.72823900153333</v>
+        <v>18.15618972806389</v>
       </c>
       <c r="R4">
-        <v>573.5541510137999</v>
+        <v>163.405707552575</v>
       </c>
       <c r="S4">
-        <v>0.06325015176249807</v>
+        <v>0.0201750221083058</v>
       </c>
       <c r="T4">
-        <v>0.06325015176249804</v>
+        <v>0.0201750221083058</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>47.625431</v>
       </c>
       <c r="I5">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J5">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N5">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O5">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P5">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q5">
-        <v>36.90597307452378</v>
+        <v>10.60892988355433</v>
       </c>
       <c r="R5">
-        <v>332.153757670714</v>
+        <v>95.48036895198899</v>
       </c>
       <c r="S5">
-        <v>0.03662910562851315</v>
+        <v>0.01178856346799141</v>
       </c>
       <c r="T5">
-        <v>0.03662910562851315</v>
+        <v>0.0117885634679914</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>47.625431</v>
       </c>
       <c r="I6">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J6">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>57.824759</v>
       </c>
       <c r="O6">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P6">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q6">
         <v>305.9921188717921</v>
@@ -818,10 +818,10 @@
         <v>2753.929069846129</v>
       </c>
       <c r="S6">
-        <v>0.303696575646842</v>
+        <v>0.3400161518285726</v>
       </c>
       <c r="T6">
-        <v>0.3036965756468419</v>
+        <v>0.3400161518285726</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>47.625431</v>
       </c>
       <c r="I7">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J7">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N7">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O7">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P7">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q7">
         <v>482.0147381723139</v>
       </c>
       <c r="R7">
-        <v>4338.132643550824</v>
+        <v>4338.132643550825</v>
       </c>
       <c r="S7">
-        <v>0.4783986788090296</v>
+        <v>0.5356111686872457</v>
       </c>
       <c r="T7">
-        <v>0.4783986788090295</v>
+        <v>0.5356111686872456</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>4.248192</v>
       </c>
       <c r="I8">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J8">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N8">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O8">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P8">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q8">
-        <v>3.292015552938667</v>
+        <v>0.9463173374720002</v>
       </c>
       <c r="R8">
-        <v>29.628139976448</v>
+        <v>8.516856037248001</v>
       </c>
       <c r="S8">
-        <v>0.003267318956088912</v>
+        <v>0.001051540741252575</v>
       </c>
       <c r="T8">
-        <v>0.003267318956088912</v>
+        <v>0.001051540741252574</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.248192</v>
       </c>
       <c r="I9">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J9">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>57.824759</v>
       </c>
       <c r="O9">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P9">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q9">
-        <v>27.29451984285866</v>
+        <v>27.29451984285867</v>
       </c>
       <c r="R9">
         <v>245.650678585728</v>
       </c>
       <c r="S9">
-        <v>0.02708975721585195</v>
+        <v>0.03032946612218434</v>
       </c>
       <c r="T9">
-        <v>0.02708975721585194</v>
+        <v>0.03032946612218433</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.248192</v>
       </c>
       <c r="I10">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J10">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N10">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O10">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P10">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q10">
-        <v>42.99575062293332</v>
+        <v>42.99575062293334</v>
       </c>
       <c r="R10">
-        <v>386.9617556063999</v>
+        <v>386.9617556064001</v>
       </c>
       <c r="S10">
-        <v>0.04267319785782283</v>
+        <v>0.0477765562253454</v>
       </c>
       <c r="T10">
-        <v>0.04267319785782281</v>
+        <v>0.04777655622534539</v>
       </c>
     </row>
   </sheetData>
